--- a/Seminarski rad/Zadatak 2.xlsx
+++ b/Seminarski rad/Zadatak 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar\GitRepos\fm-seminarski\Seminarski rad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6798D-010B-4F12-A6C9-48A5D952DF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCBA089-D8A0-4F3C-8B9F-F9D76DEF899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="9" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Open web browser (e.g. Google Chrome).</t>
   </si>
   <si>
-    <t>Navigate to www.univerzalno.com.</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t xml:space="preserve">System should show a message, and should not redirect. </t>
+  </si>
+  <si>
+    <t>Navigate to www.technoshop.ba.</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1215,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1239,14 +1239,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -1347,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
@@ -1439,7 +1439,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -1448,21 +1448,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -1514,7 +1514,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="16"/>
@@ -1610,14 +1610,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -1728,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -1748,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -1768,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -1808,21 +1808,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -1831,21 +1831,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -1854,21 +1854,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -1877,21 +1877,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
       <c r="G21" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -1900,21 +1900,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="16"/>
     </row>
@@ -2007,14 +2007,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -2117,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -2125,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -2137,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -2145,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -2165,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -2205,21 +2205,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -2228,21 +2228,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -2251,21 +2251,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2274,21 +2274,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
       <c r="G21" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -2297,21 +2297,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="16"/>
     </row>
@@ -2412,14 +2412,14 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="35" t="s">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="32"/>
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -2593,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="32"/>
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -2614,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="32"/>
@@ -2623,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -2699,21 +2699,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="32"/>
     </row>
@@ -2722,21 +2722,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="32"/>
       <c r="J19" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="32"/>
     </row>
@@ -2745,21 +2745,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="32"/>
       <c r="J20" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -2768,21 +2768,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="32"/>
       <c r="G21" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="32"/>
       <c r="J21" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="32"/>
     </row>
@@ -2791,21 +2791,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="32"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="32"/>
     </row>
@@ -2906,14 +2906,14 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="35" t="s">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -3066,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="32"/>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -3087,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="32"/>
@@ -3106,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="32"/>
@@ -3189,21 +3189,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="32"/>
     </row>
@@ -3212,21 +3212,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="32"/>
       <c r="J19" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="32"/>
     </row>
@@ -3235,21 +3235,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="32"/>
       <c r="J20" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -3258,21 +3258,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="32"/>
       <c r="G21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="32"/>
       <c r="J21" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="32"/>
     </row>
@@ -3281,21 +3281,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="32"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="32"/>
     </row>
@@ -3396,14 +3396,14 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="35" t="s">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -3556,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="32"/>
@@ -3565,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="32"/>
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="32"/>
@@ -3679,21 +3679,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="32"/>
     </row>
@@ -3702,21 +3702,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="32"/>
       <c r="J19" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="32"/>
     </row>
@@ -3725,21 +3725,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="32"/>
       <c r="J20" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -3748,21 +3748,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="32"/>
       <c r="G21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="32"/>
       <c r="J21" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="32"/>
     </row>
@@ -3771,21 +3771,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="32"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="32"/>
     </row>
@@ -3886,14 +3886,14 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="35" t="s">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -4046,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="32"/>
@@ -4055,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -4067,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="32"/>
@@ -4076,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -4088,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="32"/>
@@ -4097,7 +4097,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -4173,21 +4173,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="32"/>
     </row>
@@ -4196,21 +4196,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="32"/>
       <c r="J19" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="32"/>
     </row>
@@ -4219,21 +4219,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="32"/>
       <c r="J20" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -4242,21 +4242,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="32"/>
       <c r="G21" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="32"/>
       <c r="J21" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="32"/>
     </row>
@@ -4366,14 +4366,14 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="19" t="s">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="16"/>
     </row>
@@ -4474,7 +4474,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="16"/>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20" t="s">
@@ -4566,7 +4566,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -4575,21 +4575,21 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="16"/>
       <c r="J22" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="16"/>
     </row>
@@ -4735,14 +4735,14 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="35" t="s">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -4895,7 +4895,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="32"/>
@@ -4914,7 +4914,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="32"/>
@@ -5014,21 +5014,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="32"/>
     </row>
@@ -5037,21 +5037,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="32"/>
       <c r="J19" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="32"/>
     </row>
@@ -5060,21 +5060,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="32"/>
       <c r="J20" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -5173,7 +5173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B242C2-8B11-4A80-87D7-D3844F37A69D}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -5205,14 +5205,14 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="35" t="s">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="32"/>
@@ -5382,7 +5382,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="32"/>
@@ -5482,21 +5482,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="32"/>
     </row>
@@ -5505,21 +5505,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="32"/>
       <c r="J19" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="32"/>
     </row>
@@ -5528,21 +5528,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="32"/>
       <c r="J20" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -5674,14 +5674,14 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="35" t="s">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="32"/>
     </row>
@@ -5822,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -5834,7 +5834,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="32"/>
@@ -5853,7 +5853,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="32"/>
@@ -5953,21 +5953,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="32"/>
       <c r="G18" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="32"/>
       <c r="J18" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="32"/>
     </row>
@@ -5976,21 +5976,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="32"/>
       <c r="J19" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="32"/>
     </row>
@@ -5999,21 +5999,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="32"/>
       <c r="J20" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="32"/>
     </row>
@@ -6139,14 +6139,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -6247,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -6327,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
@@ -6341,7 +6341,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -6350,21 +6350,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -6373,21 +6373,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -6840,14 +6840,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -6948,7 +6948,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -7026,21 +7026,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -7049,21 +7049,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -7204,14 +7204,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -7312,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -7330,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -7392,21 +7392,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -7415,21 +7415,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -7438,21 +7438,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -7461,21 +7461,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
       <c r="G21" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -7585,14 +7585,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -7683,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -7695,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -7703,7 +7703,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -7715,7 +7715,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -7733,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -7779,21 +7779,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -7802,21 +7802,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="28"/>
     </row>
@@ -7825,21 +7825,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="28"/>
     </row>
@@ -7848,21 +7848,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="28"/>
       <c r="G21" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="28"/>
       <c r="J21" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="28"/>
     </row>
@@ -7871,21 +7871,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="16"/>
       <c r="J22" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="28"/>
     </row>
@@ -7987,14 +7987,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -8097,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -8115,7 +8115,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -8133,7 +8133,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -8179,21 +8179,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -8202,21 +8202,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -8225,21 +8225,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -8248,21 +8248,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
       <c r="G21" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -8373,14 +8373,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -8483,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -8501,7 +8501,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -8519,7 +8519,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -8565,21 +8565,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -8588,21 +8588,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -8611,21 +8611,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -8634,21 +8634,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
       <c r="G21" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -8657,21 +8657,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="16"/>
       <c r="J22" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="16"/>
     </row>
@@ -8769,14 +8769,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -8881,7 +8881,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -8889,7 +8889,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -8901,7 +8901,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -8909,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -8921,7 +8921,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -8929,7 +8929,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -8969,21 +8969,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -8992,21 +8992,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -9015,21 +9015,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -9038,21 +9038,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
       <c r="G21" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -9061,21 +9061,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="16"/>
     </row>
@@ -9171,14 +9171,14 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="19" t="s">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -9269,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -9281,7 +9281,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="16"/>
@@ -9289,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -9301,7 +9301,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
@@ -9309,7 +9309,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -9321,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
@@ -9329,7 +9329,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -9369,21 +9369,21 @@
         <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="16"/>
       <c r="G18" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -9392,21 +9392,21 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="16"/>
       <c r="G19" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -9415,21 +9415,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="16"/>
       <c r="G20" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -9438,21 +9438,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16"/>
       <c r="G21" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="16"/>
     </row>
@@ -9461,21 +9461,21 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16"/>
       <c r="G22" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="16"/>
     </row>
